--- a/biology/Biologie cellulaire et moléculaire/Hybridome/Hybridome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hybridome/Hybridome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hybridome est une cellule provenant de l'hybridation artificielle de cellules lymphoïdes normales de mammifères et de cellules myélomateuses de tumeurs malignes du système immunitaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hybridome cumule des propriétés des deux cellules de départ : il réalise la production spécifique d'anticorps, comme le lymphocyte, et est immortel, comme la cellule cancéreuse.
 Les hybridomes forment des lignées immortalisées stables productrices d'anticorps monoclonaux. Ils sont utilisés pour produire en grande quantité des anticorps monoclonaux, qui peuvent servir comme sondes très spécifiques. Ces anticorps peuvent être utilisés pour mesurer la concentration d'une protéine, ce qui est utile en recherche ou encore pour établir un diagnostic médical, comme par exemple dans les tests de grossesse. Ils peuvent aussi être utilisés pour produire certains médicaments à base d'anticorps monoclonaux, notamment utilisés en cancérologie (comme le trastuzumab, utilisé contre le cancer du sein) mais également dans d'autres pathologies (comme l'infliximab, utilisé contre la polyarthrite rhumatoïde et la maladie de Crohn) .
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour diverses applications, de grandes quantités d'anticorps spécifiques et purs sont nécessaires. 
 Or, en produisant des anticorps par injection d'un antigène, plusieurs lymphocyte B sont sollicités ce qui donne lieu à une hétérogénéité d'anticorps. 
@@ -579,12 +595,14 @@
           <t>Méthode[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La production d'hybridomes passe les étapes suivantes :
 l'antigène est injecté dans un rat pour provoquer la prolifération des cellules produisant l'anticorps spécifique ;
 la rate est ensuite prélevée et dissociée en cellules isolées. Ces cellules de rate peuvent synthétiser l'enzyme hypoxanthine-guanine phosphoribosyltransférase (HGPRT). Cette enzyme est nécessaire à la synthèse par la voie exogène des purines.
-Les cellules malignes de myélomes qui elles seront déficitaires en HGPRT et prélevées à partir de la même lignée d'animaux, sont fusionnées, grâce à un agent fusinogène comme le polyéthylène glycol[2], avec les lymphocytes producteurs d'anticorps, rendant les hybrides immortels.
+Les cellules malignes de myélomes qui elles seront déficitaires en HGPRT et prélevées à partir de la même lignée d'animaux, sont fusionnées, grâce à un agent fusinogène comme le polyéthylène glycol, avec les lymphocytes producteurs d'anticorps, rendant les hybrides immortels.
 Les cellules hybrides (hybridomes) sont séparées des cellules non fusionnées en plaçant le mélange dans un milieu de culture spécifique HAT qui empêche la synthèse des purines par voie endogène. Par conséquent seuls les hybrides peuvent survivre puisque ces hybrides peuvent produire l'enzyme HGPRT grâce aux plasmocytes. Les hybridomes se développent et sont isolés par dilution limite.
 Chaque hybridome est testé pour vérifier sa capacité à lier l'antigène ;
 les hybridomes sont amplifiés, soit par culture cellulaire (in vitro), soit dans les liquides d'ascites (in vivo).
